--- a/tablas/Resultados/Estadisticas.xlsx
+++ b/tablas/Resultados/Estadisticas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="41">
   <si>
     <t xml:space="preserve">Estadísticas</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Secuencia MH_01_easy</t>
   </si>
   <si>
+    <t xml:space="preserve">Detector</t>
+  </si>
+  <si>
     <t xml:space="preserve">KAZE</t>
   </si>
   <si>
@@ -43,6 +46,66 @@
     <t xml:space="preserve">SURF</t>
   </si>
   <si>
+    <t xml:space="preserve">Umbral del RANSAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umbral Número Frames Estáticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umbral Disparidad Euclideana (px)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umbral Disparidad Rotacional (°)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umbral Disparidad Traslacional (px)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de features detectados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de parejas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de parejas filtro de celdas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de inliers del RANSAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de Imágenes Procesadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de Keyframes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo promedio de Filtro Inercial (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo promedio de detección  (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo promedio de match (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo promedio de RANSAC (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo total de estimación (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo Total de Procesamiento (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo total de evaluación (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secuencia V1_01_easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threshold Visual</t>
+  </si>
+  <si>
     <t xml:space="preserve">Threshold </t>
   </si>
   <si>
@@ -58,49 +121,10 @@
     <t xml:space="preserve">Distaridad Traslacional (px)</t>
   </si>
   <si>
-    <t xml:space="preserve">Número de features detectados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de parejas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de parejas filtro de celdas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de inliers del RANSAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de Imágenes Procesadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de Keyframes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiempo promedio de Filtro Inercial (ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiempo promedio de detección  (ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiempo promedio de match (ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiempo promedio de RANSAC (ms)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tiempo de Total Algoritmo Keyframes (s)</t>
   </si>
   <si>
-    <t xml:space="preserve">Tiempo Total de Procesamiento (s)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tiempo Total del dataset (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secuencia V1_01_easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Threshold Visual</t>
   </si>
   <si>
     <t xml:space="preserve">Secuencia V1_02_medium</t>
@@ -125,8 +149,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -200,7 +225,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -213,10 +238,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -225,7 +246,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,20 +277,19 @@
   </sheetPr>
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B122" activeCellId="0" sqref="B122"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D113" activeCellId="0" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="109.882653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="106.239795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -275,7 +303,9 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -284,423 +314,408 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="F4" s="4" t="n">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="F4" s="5" t="n">
         <v>0.17782</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4" t="n">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="n">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="n">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="n">
         <v>113</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="5" t="n">
         <v>111</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="5" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="n">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="5" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="n">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="5" t="n">
         <f aca="false">21</f>
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="5" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="n">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="5" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4" t="n">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="n">
         <v>2097</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="5" t="n">
         <v>2090</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>2099</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="5" t="n">
         <v>2098</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="5" t="n">
         <v>2099</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="n">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="n">
         <v>342</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="5" t="n">
         <v>297</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="5" t="n">
         <v>396</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="5" t="n">
         <v>518</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="5" t="n">
         <v>497</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>743.2</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>346.9</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>1574.4</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>743.5</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>262.3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="7" t="n">
+        <v>104.95</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>104.95</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>104.95</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>104.95</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>104.95</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>743.2</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>166.9</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>346.9</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>116.7</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>1574.4</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>743.5</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>262.3</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>104.95</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>104.95</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>104.95</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>104.95</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>104.95</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.008</v>
@@ -720,67 +735,67 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="C31" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="E31" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="F31" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="F31" s="3" t="n">
         <v>0.17782</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E32" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F32" s="4" t="n">
+      <c r="A32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="4" t="n">
+      <c r="A33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="3" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>5</v>
@@ -800,7 +815,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>15</v>
@@ -819,8 +834,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>12</v>
+      <c r="A36" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>230</v>
@@ -839,8 +854,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>13</v>
+      <c r="A37" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>153</v>
@@ -859,13 +874,13 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>14</v>
+      <c r="A38" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C38" s="6" t="n">
+      <c r="C38" s="2" t="n">
         <v>23</v>
       </c>
       <c r="D38" s="2" t="n">
@@ -879,8 +894,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
-        <v>15</v>
+      <c r="A39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>93</v>
@@ -899,16 +914,16 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="4" t="n">
+      <c r="A40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="3" t="n">
         <v>2492</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2490</v>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="3" t="n">
         <v>2498</v>
       </c>
       <c r="E40" s="2" t="n">
@@ -919,8 +934,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>17</v>
+      <c r="A41" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>638</v>
@@ -939,7 +954,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -947,8 +962,8 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
-        <v>18</v>
+      <c r="A43" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>5.9</v>
@@ -967,8 +982,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
-        <v>19</v>
+      <c r="A44" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>764.6</v>
@@ -987,8 +1002,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
-        <v>20</v>
+      <c r="A45" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>6.4</v>
@@ -1007,8 +1022,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
-        <v>21</v>
+      <c r="A46" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>0.6</v>
@@ -1034,8 +1049,8 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
-        <v>22</v>
+      <c r="A48" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>15</v>
@@ -1054,8 +1069,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
-        <v>23</v>
+      <c r="A49" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>1936.3</v>
@@ -1075,7 +1090,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>124.9</v>
@@ -1094,28 +1109,28 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>27</v>
+      <c r="A54" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C54" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D54" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0.005</v>
@@ -1135,67 +1150,67 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="C58" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="D58" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="E58" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="F58" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="F58" s="3" t="n">
         <v>0.17782</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C59" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D59" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E59" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F59" s="4" t="n">
+      <c r="A59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="4" t="n">
+      <c r="A60" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C60" s="4" t="n">
+      <c r="C60" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D60" s="4" t="n">
+      <c r="D60" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E60" s="4" t="n">
+      <c r="E60" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F60" s="4" t="n">
+      <c r="F60" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>5</v>
@@ -1215,7 +1230,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>15</v>
@@ -1234,8 +1249,8 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
-        <v>12</v>
+      <c r="A63" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>227</v>
@@ -1254,8 +1269,8 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="s">
-        <v>13</v>
+      <c r="A64" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>142</v>
@@ -1274,13 +1289,13 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="s">
-        <v>14</v>
+      <c r="A65" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="C65" s="6" t="n">
+      <c r="C65" s="2" t="n">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="n">
@@ -1294,8 +1309,8 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="s">
-        <v>15</v>
+      <c r="A66" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>96</v>
@@ -1314,16 +1329,16 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="4" t="n">
+      <c r="A67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="3" t="n">
         <v>1625</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1643</v>
       </c>
-      <c r="D67" s="4" t="n">
+      <c r="D67" s="3" t="n">
         <v>1644</v>
       </c>
       <c r="E67" s="2" t="n">
@@ -1334,8 +1349,8 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="s">
-        <v>17</v>
+      <c r="A68" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>719</v>
@@ -1354,7 +1369,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5"/>
+      <c r="A69" s="4"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -1362,8 +1377,8 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="s">
-        <v>18</v>
+      <c r="A70" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B70" s="2" t="n">
         <v>5.4</v>
@@ -1382,8 +1397,8 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
-        <v>19</v>
+      <c r="A71" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B71" s="2" t="n">
         <v>699.4</v>
@@ -1402,8 +1417,8 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="s">
-        <v>20</v>
+      <c r="A72" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B72" s="2" t="n">
         <v>4.2</v>
@@ -1422,8 +1437,8 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="s">
-        <v>21</v>
+      <c r="A73" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B73" s="2" t="n">
         <v>0.5</v>
@@ -1449,8 +1464,8 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="s">
-        <v>22</v>
+      <c r="A75" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B75" s="2" t="n">
         <v>9.2</v>
@@ -1469,8 +1484,8 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="s">
-        <v>23</v>
+      <c r="A76" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B76" s="2" t="n">
         <v>1152.6</v>
@@ -1490,7 +1505,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B77" s="2" t="n">
         <v>81.45</v>
@@ -1510,32 +1525,32 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
-        <v>29</v>
+      <c r="A93" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C93" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D93" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>0.001</v>
@@ -1555,67 +1570,67 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="C97" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="D97" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="E97" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="F97" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B97" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="F97" s="3" t="n">
         <v>0.17782</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C98" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D98" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E98" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F98" s="4" t="n">
+      <c r="A98" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="4" t="n">
+      <c r="A99" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C99" s="4" t="n">
+      <c r="C99" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D99" s="4" t="n">
+      <c r="D99" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E99" s="4" t="n">
+      <c r="E99" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F99" s="4" t="n">
+      <c r="F99" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B100" s="2" t="n">
         <v>5</v>
@@ -1635,7 +1650,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B101" s="2" t="n">
         <v>15</v>
@@ -1654,8 +1669,8 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="s">
-        <v>12</v>
+      <c r="A102" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B102" s="2" t="n">
         <v>1312</v>
@@ -1674,8 +1689,8 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="s">
-        <v>13</v>
+      <c r="A103" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B103" s="2" t="n">
         <v>847</v>
@@ -1694,13 +1709,13 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="s">
-        <v>14</v>
+      <c r="A104" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B104" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="C104" s="6" t="n">
+      <c r="C104" s="2" t="n">
         <v>27</v>
       </c>
       <c r="D104" s="2" t="n">
@@ -1714,8 +1729,8 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="s">
-        <v>15</v>
+      <c r="A105" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B105" s="2" t="n">
         <v>607</v>
@@ -1734,16 +1749,16 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B106" s="4" t="n">
+      <c r="A106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" s="3" t="n">
         <v>1597</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>1643</v>
       </c>
-      <c r="D106" s="4" t="n">
+      <c r="D106" s="3" t="n">
         <v>2043</v>
       </c>
       <c r="E106" s="2" t="n">
@@ -1754,8 +1769,8 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="s">
-        <v>17</v>
+      <c r="A107" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B107" s="2" t="n">
         <v>398</v>
@@ -1774,7 +1789,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5"/>
+      <c r="A108" s="4"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -1782,8 +1797,8 @@
       <c r="F108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5" t="s">
-        <v>18</v>
+      <c r="A109" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B109" s="2" t="n">
         <v>5.9</v>
@@ -1802,8 +1817,8 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="5" t="s">
-        <v>19</v>
+      <c r="A110" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B110" s="2" t="n">
         <v>885.5</v>
@@ -1822,8 +1837,8 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="5" t="s">
-        <v>20</v>
+      <c r="A111" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B111" s="2" t="n">
         <v>106</v>
@@ -1842,8 +1857,8 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5" t="s">
-        <v>21</v>
+      <c r="A112" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B112" s="2" t="n">
         <v>3.1</v>
@@ -1869,8 +1884,8 @@
       <c r="F113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5" t="s">
-        <v>22</v>
+      <c r="A114" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1879,8 +1894,8 @@
       <c r="F114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="5" t="s">
-        <v>23</v>
+      <c r="A115" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B115" s="2" t="n">
         <v>1594.2</v>
@@ -1900,7 +1915,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B116" s="2" t="n">
         <v>79.9</v>
@@ -1920,32 +1935,32 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="s">
-        <v>31</v>
+      <c r="A122" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C122" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D122" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>0.001</v>
@@ -1965,67 +1980,67 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="C126" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="D126" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="E126" s="4" t="n">
-        <v>0.17782</v>
-      </c>
-      <c r="F126" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B126" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="C126" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="D126" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="E126" s="3" t="n">
+        <v>0.17782</v>
+      </c>
+      <c r="F126" s="3" t="n">
         <v>0.17782</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C127" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D127" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E127" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F127" s="4" t="n">
+      <c r="A127" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B127" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C127" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D127" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E127" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F127" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" s="4" t="n">
+      <c r="A128" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C128" s="4" t="n">
+      <c r="C128" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D128" s="4" t="n">
+      <c r="D128" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E128" s="4" t="n">
+      <c r="E128" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F128" s="4" t="n">
+      <c r="F128" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>5</v>
@@ -2045,7 +2060,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B130" s="2" t="n">
         <v>15</v>
@@ -2062,8 +2077,8 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="5" t="s">
-        <v>12</v>
+      <c r="A131" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B131" s="2" t="n">
         <v>1312</v>
@@ -2080,8 +2095,8 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="5" t="s">
-        <v>13</v>
+      <c r="A132" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B132" s="2" t="n">
         <v>847</v>
@@ -2098,13 +2113,13 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="5" t="s">
-        <v>14</v>
+      <c r="A133" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B133" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="C133" s="6"/>
+      <c r="C133" s="2"/>
       <c r="D133" s="2" t="n">
         <v>20</v>
       </c>
@@ -2116,8 +2131,8 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="5" t="s">
-        <v>15</v>
+      <c r="A134" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B134" s="2" t="n">
         <v>607</v>
@@ -2134,14 +2149,14 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B135" s="4" t="n">
+      <c r="A135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" s="3" t="n">
         <v>1597</v>
       </c>
       <c r="C135" s="2"/>
-      <c r="D135" s="4" t="n">
+      <c r="D135" s="3" t="n">
         <v>2186</v>
       </c>
       <c r="E135" s="2" t="n">
@@ -2152,8 +2167,8 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="5" t="s">
-        <v>17</v>
+      <c r="A136" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B136" s="2" t="n">
         <v>398</v>
@@ -2170,7 +2185,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="5"/>
+      <c r="A137" s="4"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -2178,8 +2193,8 @@
       <c r="F137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="5" t="s">
-        <v>18</v>
+      <c r="A138" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B138" s="2" t="n">
         <v>5.9</v>
@@ -2196,8 +2211,8 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="5" t="s">
-        <v>19</v>
+      <c r="A139" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B139" s="2" t="n">
         <v>885.5</v>
@@ -2214,8 +2229,8 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="5" t="s">
-        <v>20</v>
+      <c r="A140" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B140" s="2" t="n">
         <v>106</v>
@@ -2232,8 +2247,8 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="5" t="s">
-        <v>21</v>
+      <c r="A141" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B141" s="2" t="n">
         <v>3.1</v>
@@ -2257,8 +2272,8 @@
       <c r="F142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="5" t="s">
-        <v>22</v>
+      <c r="A143" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B143" s="2" t="n">
         <v>10.7</v>
@@ -2271,8 +2286,8 @@
       <c r="F143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="5" t="s">
-        <v>23</v>
+      <c r="A144" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B144" s="2" t="n">
         <v>1594.2</v>
@@ -2290,7 +2305,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B145" s="2" t="n">
         <v>109.45</v>
@@ -2308,7 +2323,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/tablas/Resultados/Estadisticas.xlsx
+++ b/tablas/Resultados/Estadisticas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="42">
   <si>
     <t xml:space="preserve">Estadísticas</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">Info: 2.6 segundos de calibracion nada mas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secuencia 2</t>
   </si>
 </sst>
 </file>
@@ -275,21 +278,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D113" activeCellId="0" sqref="D113"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A153" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B178" activeCellId="0" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="106.239795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="105.025510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,6 +2328,244 @@
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B160" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B161" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" s="3" t="n">
+        <v>268</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="3" t="n">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>1368</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2" t="n">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2" t="n">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>372</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2" t="n">
+        <v>13.7</v>
       </c>
     </row>
   </sheetData>
